--- a/Turma Maio 2017/Aula 9/Projeto Controle Financeiro Parte Final.xlsx
+++ b/Turma Maio 2017/Aula 9/Projeto Controle Financeiro Parte Final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" tabRatio="95"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" tabRatio="95" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL PRINCIPAL" sheetId="2" r:id="rId1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00"/>
@@ -2497,7 +2497,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>R$ 669.592</a:t>
+              <a:t>R$ 201.528</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="2800" b="1">
               <a:solidFill>
@@ -3274,6 +3274,7 @@
                 <a:latin typeface="Arial"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>R$ 611.467</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4400" b="1">
@@ -3528,6 +3529,7 @@
                 <a:latin typeface="Arial"/>
                 <a:cs typeface="Arial"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>R$ 848.292</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4800" b="1">
@@ -7039,13 +7041,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
   <dimension ref="C1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7115,7 +7117,7 @@
       </c>
       <c r="P5" s="24">
         <f ca="1">SUMIF('Contas a Pagar'!N5:N30,"A Pagar",Valor_Pagar)</f>
-        <v>669591.82336665841</v>
+        <v>201527.8379650678</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
@@ -7353,7 +7355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -7573,17 +7575,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="C1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8219,7 +8221,7 @@
       </c>
       <c r="O17" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Proximo do Vencimento 6 Dias</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8387,7 +8389,7 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Receber</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8465,7 +8467,7 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Receber</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8504,7 +8506,7 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Receber</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8625,7 +8627,7 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Receber</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8764,7 +8766,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Erro" error="Este campo só aceita a Letra  S" promptTitle="Mensagem Contas a Receber" prompt="Marcar com um &quot;S&quot; as contas recebidas!" sqref="K5:K30">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Erro" error="Este campo só aceita a Letra  S" promptTitle="Mensagem Contas a Receber" prompt="Marcar com um &quot;S&quot; as contas recebidas!" sqref="K5:K30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8774,25 +8776,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$K$5:$K$12</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Dados!$C$5:$C$10</xm:f>
           </x14:formula1>
           <xm:sqref>H5:H30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Dados!$G$5:$G$9</xm:f>
           </x14:formula1>
           <xm:sqref>L5:L30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Dados!$I$5:$I$9</xm:f>
           </x14:formula1>
@@ -8805,7 +8807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8815,7 +8817,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9483,7 +9485,7 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9519,7 +9521,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9555,7 +9557,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9627,7 +9629,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9663,7 +9665,7 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9699,7 +9701,7 @@
       <c r="M25" s="20"/>
       <c r="N25" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9771,7 +9773,7 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A Pagar</v>
+        <v>Vencido</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9898,7 +9900,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J30" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"S"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9908,19 +9910,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$I$5:$I$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Dados!$E$5:$E$19</xm:f>
           </x14:formula1>
           <xm:sqref>G5:G30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Dados!$G$5:$G$9</xm:f>
           </x14:formula1>
@@ -9933,7 +9935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
@@ -11392,7 +11394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
